--- a/biology/Botanique/Cuphea/Cuphea.xlsx
+++ b/biology/Botanique/Cuphea/Cuphea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuphea est un genre de plantes à fleur de la famille des Lythraceae, qui comprend environ 260 espèces, originaires des régions tempérées chaudes et tropicales des Amériques. Les espèces du genre comprennent de petites herbacées annuelles ou vivaces et des arbustes semi-ligneux atteignant jusqu'à 2 mètres de hauteur. Généralement, ils sont connus comme Cupheas, ou, dans le cas de certaines espèces, comme plante-cigare. Le nom générique est dérivé du grec mot κυφος (kyphos), signifiant "plié", "courbé" ou "bosselé"[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuphea est un genre de plantes à fleur de la famille des Lythraceae, qui comprend environ 260 espèces, originaires des régions tempérées chaudes et tropicales des Amériques. Les espèces du genre comprennent de petites herbacées annuelles ou vivaces et des arbustes semi-ligneux atteignant jusqu'à 2 mètres de hauteur. Généralement, ils sont connus comme Cupheas, ou, dans le cas de certaines espèces, comme plante-cigare. Le nom générique est dérivé du grec mot κυφος (kyphos), signifiant "plié", "courbé" ou "bosselé".
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces de  Cuphea sont populaires comme plantes ornementales ou comme mellifères. Cuphea ignea cv. 'David Verity' et Cuphea micropetalia sont réputées pour attirer les colibris.
 Certaines espèces de Cuphea sont utilisés pour produire de l'huile de cuphea, intéressante en tant que sources de triglycérides à chaîne moyenne. Pour la plupart des utilisations, l'huile de cuphea a des propriétés similaires à l'huile de noix de coco ou à l'huile de palme, ces dernières, obtenue à partir de plantes strictement tropicales et responsable de déforestation massive (en particulier dans le dernier cas). Il a donc été suggéré que la production d'huile de  Cuphea pouvait constituer une précieuse source de revenus pour les agriculteurs dans les régions tempérées, et répondre à la demande croissante (par exemple, pour la production de biodiesel), et parallèlement, contribuer à diminuer la pression sur les forêts tropicales. Les premières tentatives de production commerciale ont porté sur un hybride de Cuphea lanceolata et Cuphea viscosissima ("Clammy Cuphea"). 
@@ -545,7 +559,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cuphea aspera Chapman
 Cuphea carthagenensis (Jacq.) J.F.MacBr.
@@ -562,7 +578,7 @@
 Cuphea laminuligera Koehne
 Cuphea lanceolata W.T.Aiton
 Cuphea linarioides Cham. et Schltdl.
-Cuphea llavea Lex. – bat-faced cuphea [4]
+Cuphea llavea Lex. – bat-faced cuphea 
 Cuphea lutea Rose
 Cuphea lutescens Hoehne
 Cuphea melvilla Lindl.
@@ -576,7 +592,7 @@
 Cuphea speciosa Mart.
 Cuphea strigulosa
 Cuphea viscosissima Jacq. – clammy cuphea, blue waxweed, tarweed
-Cuphea wrightii A.Gray[5]</t>
+Cuphea wrightii A.Gray</t>
         </is>
       </c>
     </row>
